--- a/Scripts/parameters_output_27450.xlsx
+++ b/Scripts/parameters_output_27450.xlsx
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>0.305</v>
+        <v>0.3055</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -530,13 +530,13 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>724.6834714177965</v>
+        <v>719.4179845443564</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="J3">
         <v>10.14954453012115</v>
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.305</v>
+        <v>0.3055</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="G5">
-        <v>-0.4263583444730328</v>
+        <v>-0.4277914839370043</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0.305</v>
+        <v>0.3055</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -658,16 +658,16 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>3978311.433844503</v>
+        <v>2066487.78297592</v>
       </c>
       <c r="H7">
-        <v>43359.08583758575</v>
+        <v>56341.97932571362</v>
       </c>
       <c r="I7">
-        <v>7.15</v>
+        <v>25.47</v>
       </c>
       <c r="J7">
-        <v>284432.8659023087</v>
+        <v>526293.8703842376</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -713,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.305</v>
+        <v>0.3055</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -722,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <v>1.672716874659236</v>
+        <v>1.675088314341648</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.305</v>
+        <v>0.3055</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -786,13 +786,13 @@
         <v>21</v>
       </c>
       <c r="G11">
-        <v>1.981545876772315e+20</v>
+        <v>1.990069246608935e+20</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
       <c r="J11">
         <v>1.334487636150823e+19</v>
@@ -841,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>0.305</v>
+        <v>0.3055</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -850,13 +850,13 @@
         <v>22</v>
       </c>
       <c r="G13">
-        <v>3.614706833624323e+19</v>
+        <v>3.607907939640236e+19</v>
       </c>
       <c r="H13">
-        <v>2.036560350040014e+18</v>
+        <v>2.02987055010028e+18</v>
       </c>
       <c r="I13">
-        <v>6.78</v>
+        <v>6.79</v>
       </c>
       <c r="J13">
         <v>2.451183789024912e+18</v>
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>0.305</v>
+        <v>0.3055</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -914,13 +914,13 @@
         <v>23</v>
       </c>
       <c r="G15">
-        <v>2.555894255657595e+19</v>
+        <v>2.532466801664497e+19</v>
       </c>
       <c r="H15">
-        <v>4.226359346570159e+18</v>
+        <v>4.205477094813206e+18</v>
       </c>
       <c r="I15">
-        <v>22.12</v>
+        <v>22.32</v>
       </c>
       <c r="J15">
         <v>5.652888837912994e+18</v>
